--- a/data/summarized rasio - KBMI 4.xlsx
+++ b/data/summarized rasio - KBMI 4.xlsx
@@ -589,40 +589,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23.79</v>
+        <v>0.2379</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="H2" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="I2" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="J2" t="n">
-        <v>3.98</v>
+        <v>0.0398</v>
       </c>
       <c r="K2" t="n">
-        <v>18.03</v>
+        <v>0.1803</v>
       </c>
       <c r="L2" t="n">
-        <v>6.23</v>
+        <v>0.0623</v>
       </c>
       <c r="M2" t="n">
-        <v>59.84</v>
+        <v>0.5984</v>
       </c>
       <c r="N2" t="n">
-        <v>43.21</v>
+        <v>0.4321</v>
       </c>
       <c r="O2" t="n">
-        <v>80.58</v>
+        <v>0.8058</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -637,16 +637,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U2" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.38</v>
+        <v>0.0038</v>
       </c>
       <c r="X2" t="n">
         <v>2019</v>
@@ -682,40 +682,40 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22.5</v>
+        <v>0.225</v>
       </c>
       <c r="E3" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="F3" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>0.032</v>
       </c>
       <c r="H3" t="n">
-        <v>2.61</v>
+        <v>0.0261</v>
       </c>
       <c r="I3" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="J3" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="K3" t="n">
-        <v>15.27</v>
+        <v>0.1527</v>
       </c>
       <c r="L3" t="n">
-        <v>5.49</v>
+        <v>0.0549</v>
       </c>
       <c r="M3" t="n">
-        <v>67.45999999999999</v>
+        <v>0.6746</v>
       </c>
       <c r="N3" t="n">
-        <v>40.4</v>
+        <v>0.404</v>
       </c>
       <c r="O3" t="n">
-        <v>92.52</v>
+        <v>0.9251999999999999</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="U3" t="n">
-        <v>6.05</v>
+        <v>0.0605</v>
       </c>
       <c r="V3" t="n">
-        <v>8.130000000000001</v>
+        <v>0.08130000000000001</v>
       </c>
       <c r="W3" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="X3" t="n">
         <v>2019</v>
@@ -775,40 +775,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>19.33</v>
+        <v>0.1933</v>
       </c>
       <c r="E4" t="n">
-        <v>1.54</v>
+        <v>0.0154</v>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="I4" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="K4" t="n">
-        <v>14.73</v>
+        <v>0.1473</v>
       </c>
       <c r="L4" t="n">
-        <v>4.85</v>
+        <v>0.04849999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>71.81999999999999</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>43.6</v>
+        <v>0.436</v>
       </c>
       <c r="O4" t="n">
-        <v>96.56999999999999</v>
+        <v>0.9656999999999999</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U4" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="V4" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="W4" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="X4" t="n">
         <v>2019</v>
@@ -868,40 +868,40 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21.62</v>
+        <v>0.2162</v>
       </c>
       <c r="E5" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="F5" t="n">
-        <v>2.28</v>
+        <v>0.0228</v>
       </c>
       <c r="G5" t="n">
-        <v>3.66</v>
+        <v>0.0366</v>
       </c>
       <c r="H5" t="n">
-        <v>2.96</v>
+        <v>0.0296</v>
       </c>
       <c r="I5" t="n">
-        <v>1.13</v>
+        <v>0.0113</v>
       </c>
       <c r="J5" t="n">
-        <v>3.42</v>
+        <v>0.0342</v>
       </c>
       <c r="K5" t="n">
-        <v>19.16</v>
+        <v>0.1916</v>
       </c>
       <c r="L5" t="n">
-        <v>7.02</v>
+        <v>0.0702</v>
       </c>
       <c r="M5" t="n">
-        <v>70.5</v>
+        <v>0.705</v>
       </c>
       <c r="N5" t="n">
-        <v>40.76</v>
+        <v>0.4076</v>
       </c>
       <c r="O5" t="n">
-        <v>93.06999999999999</v>
+        <v>0.9307</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="U5" t="n">
-        <v>6.03</v>
+        <v>0.0603</v>
       </c>
       <c r="V5" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="W5" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="X5" t="n">
         <v>2019</v>
@@ -961,40 +961,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23.8</v>
+        <v>0.238</v>
       </c>
       <c r="E6" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="H6" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="I6" t="n">
-        <v>0.47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>17.97</v>
+        <v>0.1797</v>
       </c>
       <c r="L6" t="n">
-        <v>6.24</v>
+        <v>0.0624</v>
       </c>
       <c r="M6" t="n">
-        <v>59.09</v>
+        <v>0.5909</v>
       </c>
       <c r="N6" t="n">
-        <v>43.33</v>
+        <v>0.4333</v>
       </c>
       <c r="O6" t="n">
-        <v>80.47</v>
+        <v>0.8047</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U6" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="V6" t="n">
-        <v>8.52</v>
+        <v>0.0852</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="X6" t="n">
         <v>2019</v>
@@ -1054,40 +1054,40 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.39</v>
+        <v>0.2139</v>
       </c>
       <c r="E7" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="F7" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>0.0288</v>
       </c>
       <c r="H7" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="I7" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="K7" t="n">
-        <v>15.08</v>
+        <v>0.1508</v>
       </c>
       <c r="L7" t="n">
-        <v>5.46</v>
+        <v>0.0546</v>
       </c>
       <c r="M7" t="n">
-        <v>67.44</v>
+        <v>0.6744</v>
       </c>
       <c r="N7" t="n">
-        <v>42.25</v>
+        <v>0.4225</v>
       </c>
       <c r="O7" t="n">
-        <v>96.37</v>
+        <v>0.9637</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U7" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="V7" t="n">
-        <v>8.1</v>
+        <v>0.081</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="X7" t="n">
         <v>2019</v>
@@ -1147,40 +1147,40 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19.73</v>
+        <v>0.1973</v>
       </c>
       <c r="E8" t="n">
-        <v>1.75</v>
+        <v>0.0175</v>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="H8" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="I8" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="J8" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="L8" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="M8" t="n">
-        <v>73.16</v>
+        <v>0.7315999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>43.85</v>
+        <v>0.4385</v>
       </c>
       <c r="O8" t="n">
-        <v>91.54000000000001</v>
+        <v>0.9154000000000001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U8" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="V8" t="n">
-        <v>8.01</v>
+        <v>0.0801</v>
       </c>
       <c r="W8" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="X8" t="n">
         <v>2019</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22.55</v>
+        <v>0.2255</v>
       </c>
       <c r="E9" t="n">
-        <v>1.74</v>
+        <v>0.0174</v>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="G9" t="n">
-        <v>3.36</v>
+        <v>0.0336</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>0.0262</v>
       </c>
       <c r="I9" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="K9" t="n">
-        <v>19.41</v>
+        <v>0.1941</v>
       </c>
       <c r="L9" t="n">
-        <v>6.98</v>
+        <v>0.0698</v>
       </c>
       <c r="M9" t="n">
-        <v>70.09999999999999</v>
+        <v>0.701</v>
       </c>
       <c r="N9" t="n">
-        <v>40.03</v>
+        <v>0.4003</v>
       </c>
       <c r="O9" t="n">
-        <v>88.64</v>
+        <v>0.8864</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="U9" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="V9" t="n">
-        <v>8.07</v>
+        <v>0.08070000000000001</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="X9" t="n">
         <v>2019</v>
@@ -1333,40 +1333,40 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>22.5</v>
+        <v>0.225</v>
       </c>
       <c r="E10" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="G10" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="H10" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="I10" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="J10" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="K10" t="n">
-        <v>15.56</v>
+        <v>0.1556</v>
       </c>
       <c r="L10" t="n">
-        <v>6.13</v>
+        <v>0.0613</v>
       </c>
       <c r="M10" t="n">
-        <v>77.09</v>
+        <v>0.7709</v>
       </c>
       <c r="N10" t="n">
-        <v>67.66</v>
+        <v>0.6766</v>
       </c>
       <c r="O10" t="n">
-        <v>77.64</v>
+        <v>0.7764</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="U10" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W10" t="n">
-        <v>0.17</v>
+        <v>0.0017</v>
       </c>
       <c r="X10" t="n">
         <v>2020</v>
@@ -1426,40 +1426,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17.65</v>
+        <v>0.1765</v>
       </c>
       <c r="E11" t="n">
-        <v>1.55</v>
+        <v>0.0155</v>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="G11" t="n">
-        <v>5.07</v>
+        <v>0.0507</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>0.024</v>
       </c>
       <c r="I11" t="n">
-        <v>0.47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>0.0355</v>
       </c>
       <c r="K11" t="n">
-        <v>21.15</v>
+        <v>0.2115</v>
       </c>
       <c r="L11" t="n">
-        <v>5.26</v>
+        <v>0.0526</v>
       </c>
       <c r="M11" t="n">
-        <v>63.01</v>
+        <v>0.6301</v>
       </c>
       <c r="N11" t="n">
-        <v>38.16</v>
+        <v>0.3815999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>94.91</v>
+        <v>0.9490999999999999</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="U11" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="V11" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="X11" t="n">
         <v>2020</v>
@@ -1519,40 +1519,40 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>16.07</v>
+        <v>0.1607</v>
       </c>
       <c r="E12" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="G12" t="n">
-        <v>4.17</v>
+        <v>0.0417</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="I12" t="n">
-        <v>0.52</v>
+        <v>0.0052</v>
       </c>
       <c r="J12" t="n">
-        <v>2.63</v>
+        <v>0.0263</v>
       </c>
       <c r="K12" t="n">
-        <v>16.94</v>
+        <v>0.1694</v>
       </c>
       <c r="L12" t="n">
-        <v>4.88</v>
+        <v>0.0488</v>
       </c>
       <c r="M12" t="n">
-        <v>73.15000000000001</v>
+        <v>0.7315</v>
       </c>
       <c r="N12" t="n">
-        <v>43.85</v>
+        <v>0.4385</v>
       </c>
       <c r="O12" t="n">
-        <v>92.26000000000001</v>
+        <v>0.9226000000000001</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="U12" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="V12" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W12" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="X12" t="n">
         <v>2020</v>
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18.23</v>
+        <v>0.1823</v>
       </c>
       <c r="E13" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="F13" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="G13" t="n">
-        <v>5.09</v>
+        <v>0.0509</v>
       </c>
       <c r="H13" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="I13" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="J13" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="K13" t="n">
-        <v>20.39</v>
+        <v>0.2039</v>
       </c>
       <c r="L13" t="n">
-        <v>6.66</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="M13" t="n">
-        <v>72.97</v>
+        <v>0.7297</v>
       </c>
       <c r="N13" t="n">
-        <v>41.5</v>
+        <v>0.415</v>
       </c>
       <c r="O13" t="n">
-        <v>90.39</v>
+        <v>0.9039</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="U13" t="n">
-        <v>3.07</v>
+        <v>0.0307</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W13" t="n">
-        <v>2.05</v>
+        <v>0.0205</v>
       </c>
       <c r="X13" t="n">
         <v>2020</v>
@@ -1705,40 +1705,40 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22.93</v>
+        <v>0.2293</v>
       </c>
       <c r="E14" t="n">
-        <v>1.17</v>
+        <v>0.0117</v>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="H14" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="I14" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="J14" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="K14" t="n">
-        <v>15.62</v>
+        <v>0.1562</v>
       </c>
       <c r="L14" t="n">
-        <v>5.96</v>
+        <v>0.0596</v>
       </c>
       <c r="M14" t="n">
-        <v>66.59</v>
+        <v>0.6659</v>
       </c>
       <c r="N14" t="n">
-        <v>45.65</v>
+        <v>0.4565</v>
       </c>
       <c r="O14" t="n">
-        <v>73.28</v>
+        <v>0.7328</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1756,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W14" t="n">
-        <v>0.14</v>
+        <v>0.0014</v>
       </c>
       <c r="X14" t="n">
         <v>2020</v>
@@ -1798,40 +1798,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19.2</v>
+        <v>0.192</v>
       </c>
       <c r="E15" t="n">
-        <v>2.03</v>
+        <v>0.0203</v>
       </c>
       <c r="F15" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="G15" t="n">
-        <v>4.96</v>
+        <v>0.0496</v>
       </c>
       <c r="H15" t="n">
-        <v>3.42</v>
+        <v>0.0342</v>
       </c>
       <c r="I15" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>2.23</v>
+        <v>0.0223</v>
       </c>
       <c r="K15" t="n">
-        <v>13.27</v>
+        <v>0.1327</v>
       </c>
       <c r="L15" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="M15" t="n">
-        <v>74.18000000000001</v>
+        <v>0.7418</v>
       </c>
       <c r="N15" t="n">
-        <v>41.29</v>
+        <v>0.4129</v>
       </c>
       <c r="O15" t="n">
-        <v>87.65000000000001</v>
+        <v>0.8765000000000001</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>3.84</v>
+        <v>0.0384</v>
       </c>
       <c r="V15" t="n">
-        <v>4.16</v>
+        <v>0.0416</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="X15" t="n">
         <v>2020</v>
@@ -1891,40 +1891,40 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16.71</v>
+        <v>0.1671</v>
       </c>
       <c r="E16" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="F16" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="G16" t="n">
-        <v>4.11</v>
+        <v>0.0411</v>
       </c>
       <c r="H16" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="I16" t="n">
-        <v>0.55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>1.38</v>
+        <v>0.0138</v>
       </c>
       <c r="K16" t="n">
-        <v>8.74</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>4.47</v>
+        <v>0.0447</v>
       </c>
       <c r="M16" t="n">
-        <v>82.81</v>
+        <v>0.8281000000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>43.51</v>
+        <v>0.4351</v>
       </c>
       <c r="O16" t="n">
-        <v>87.79000000000001</v>
+        <v>0.8779</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U16" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="V16" t="n">
-        <v>4.03</v>
+        <v>0.0403</v>
       </c>
       <c r="W16" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="X16" t="n">
         <v>2020</v>
@@ -1984,40 +1984,40 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19.83</v>
+        <v>0.1983</v>
       </c>
       <c r="E17" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F17" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="G17" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="H17" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="I17" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="J17" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="K17" t="n">
-        <v>12.62</v>
+        <v>0.1262</v>
       </c>
       <c r="L17" t="n">
-        <v>5.72</v>
+        <v>0.0572</v>
       </c>
       <c r="M17" t="n">
-        <v>77.48999999999999</v>
+        <v>0.7748999999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>50.24</v>
+        <v>0.5024000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>85.78</v>
+        <v>0.8578</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.22</v>
+        <v>0.0322</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W17" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="X17" t="n">
         <v>2020</v>
@@ -2077,40 +2077,40 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>24.72</v>
+        <v>0.2472</v>
       </c>
       <c r="E18" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="F18" t="n">
-        <v>0.92</v>
+        <v>0.0092</v>
       </c>
       <c r="G18" t="n">
-        <v>2.91</v>
+        <v>0.0291</v>
       </c>
       <c r="H18" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="I18" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="J18" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="K18" t="n">
-        <v>16.87</v>
+        <v>0.1687</v>
       </c>
       <c r="L18" t="n">
-        <v>5.83</v>
+        <v>0.0583</v>
       </c>
       <c r="M18" t="n">
-        <v>65.56999999999999</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>47.22</v>
+        <v>0.4722</v>
       </c>
       <c r="O18" t="n">
-        <v>69.55</v>
+        <v>0.6955</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W18" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="X18" t="n">
         <v>2020</v>
@@ -2170,40 +2170,40 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19.83</v>
+        <v>0.1983</v>
       </c>
       <c r="E19" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="F19" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="G19" t="n">
-        <v>4.99</v>
+        <v>0.0499</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="I19" t="n">
-        <v>0.64</v>
+        <v>0.0064</v>
       </c>
       <c r="J19" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="K19" t="n">
-        <v>11.56</v>
+        <v>0.1156</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="M19" t="n">
-        <v>76.34999999999999</v>
+        <v>0.7635</v>
       </c>
       <c r="N19" t="n">
-        <v>41.92</v>
+        <v>0.4192</v>
       </c>
       <c r="O19" t="n">
-        <v>83.03</v>
+        <v>0.8303</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2218,16 +2218,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="U19" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="V19" t="n">
-        <v>8.32</v>
+        <v>0.0832</v>
       </c>
       <c r="W19" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="X19" t="n">
         <v>2020</v>
@@ -2263,40 +2263,40 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>16.75</v>
+        <v>0.1675</v>
       </c>
       <c r="E20" t="n">
-        <v>2.64</v>
+        <v>0.0264</v>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>0.025</v>
       </c>
       <c r="G20" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="H20" t="n">
-        <v>3.56</v>
+        <v>0.0356</v>
       </c>
       <c r="I20" t="n">
-        <v>0.53</v>
+        <v>0.0053</v>
       </c>
       <c r="J20" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>4.32</v>
+        <v>0.0432</v>
       </c>
       <c r="M20" t="n">
-        <v>88.98999999999999</v>
+        <v>0.8898999999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>44.18</v>
+        <v>0.4418</v>
       </c>
       <c r="O20" t="n">
-        <v>83.11</v>
+        <v>0.8310999999999999</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U20" t="n">
-        <v>3.55</v>
+        <v>0.0355</v>
       </c>
       <c r="V20" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W20" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="X20" t="n">
         <v>2020</v>
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20.38</v>
+        <v>0.2038</v>
       </c>
       <c r="E21" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F21" t="n">
-        <v>1.9</v>
+        <v>0.019</v>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="H21" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="I21" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="K21" t="n">
-        <v>11.43</v>
+        <v>0.1143</v>
       </c>
       <c r="L21" t="n">
-        <v>5.76</v>
+        <v>0.0576</v>
       </c>
       <c r="M21" t="n">
-        <v>80.64</v>
+        <v>0.8064</v>
       </c>
       <c r="N21" t="n">
-        <v>49.82</v>
+        <v>0.4982</v>
       </c>
       <c r="O21" t="n">
-        <v>82.58</v>
+        <v>0.8258</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W21" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="X21" t="n">
         <v>2020</v>
@@ -2449,40 +2449,40 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>25.83</v>
+        <v>0.2583</v>
       </c>
       <c r="E22" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>2.78</v>
+        <v>0.0278</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>0.0179</v>
       </c>
       <c r="I22" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="J22" t="n">
-        <v>3.32</v>
+        <v>0.0332</v>
       </c>
       <c r="K22" t="n">
-        <v>16.54</v>
+        <v>0.1654</v>
       </c>
       <c r="L22" t="n">
-        <v>5.7</v>
+        <v>0.057</v>
       </c>
       <c r="M22" t="n">
-        <v>63.45</v>
+        <v>0.6345000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>44.32</v>
+        <v>0.4432</v>
       </c>
       <c r="O22" t="n">
-        <v>65.77</v>
+        <v>0.6577</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W22" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="X22" t="n">
         <v>2020</v>
@@ -2542,40 +2542,40 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19.9</v>
+        <v>0.199</v>
       </c>
       <c r="E23" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F23" t="n">
-        <v>2.36</v>
+        <v>0.0236</v>
       </c>
       <c r="G23" t="n">
-        <v>5.36</v>
+        <v>0.0536</v>
       </c>
       <c r="H23" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="I23" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="J23" t="n">
-        <v>1.64</v>
+        <v>0.0164</v>
       </c>
       <c r="K23" t="n">
-        <v>9.359999999999999</v>
+        <v>0.09359999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>4.48</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>80.03</v>
+        <v>0.8003</v>
       </c>
       <c r="N23" t="n">
-        <v>44.89</v>
+        <v>0.4489</v>
       </c>
       <c r="O23" t="n">
-        <v>82.95</v>
+        <v>0.8295</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>3.5</v>
+        <v>0.035</v>
       </c>
       <c r="V23" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W23" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="X23" t="n">
         <v>2020</v>
@@ -2635,40 +2635,40 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.78</v>
+        <v>0.1678</v>
       </c>
       <c r="E24" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="F24" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="G24" t="n">
-        <v>6.22</v>
+        <v>0.0622</v>
       </c>
       <c r="H24" t="n">
-        <v>4.25</v>
+        <v>0.0425</v>
       </c>
       <c r="I24" t="n">
-        <v>0.95</v>
+        <v>0.0095</v>
       </c>
       <c r="J24" t="n">
-        <v>0.54</v>
+        <v>0.0054</v>
       </c>
       <c r="K24" t="n">
-        <v>2.86</v>
+        <v>0.0286</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="M24" t="n">
-        <v>93.31</v>
+        <v>0.9331</v>
       </c>
       <c r="N24" t="n">
-        <v>44.17</v>
+        <v>0.4417</v>
       </c>
       <c r="O24" t="n">
-        <v>87.28</v>
+        <v>0.8728</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -2683,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U24" t="n">
-        <v>4.93</v>
+        <v>0.0493</v>
       </c>
       <c r="V24" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W24" t="n">
-        <v>3.16</v>
+        <v>0.0316</v>
       </c>
       <c r="X24" t="n">
         <v>2020</v>
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20.61</v>
+        <v>0.2061</v>
       </c>
       <c r="E25" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="F25" t="n">
-        <v>1.81</v>
+        <v>0.0181</v>
       </c>
       <c r="G25" t="n">
-        <v>5.42</v>
+        <v>0.0542</v>
       </c>
       <c r="H25" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="J25" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="K25" t="n">
-        <v>11.05</v>
+        <v>0.1105</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>81.22</v>
+        <v>0.8122</v>
       </c>
       <c r="N25" t="n">
-        <v>45.4</v>
+        <v>0.454</v>
       </c>
       <c r="O25" t="n">
-        <v>83.66</v>
+        <v>0.8366</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -2779,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W25" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="X25" t="n">
         <v>2020</v>
@@ -2821,40 +2821,40 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>24.53</v>
+        <v>0.2453</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="H26" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="K26" t="n">
-        <v>15.82</v>
+        <v>0.1582</v>
       </c>
       <c r="L26" t="n">
-        <v>5.3</v>
+        <v>0.053</v>
       </c>
       <c r="M26" t="n">
-        <v>63.27</v>
+        <v>0.6327</v>
       </c>
       <c r="N26" t="n">
-        <v>42.47</v>
+        <v>0.4247</v>
       </c>
       <c r="O26" t="n">
-        <v>65.23999999999999</v>
+        <v>0.6524</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W26" t="n">
-        <v>0.42</v>
+        <v>0.0042</v>
       </c>
       <c r="X26" t="n">
         <v>2021</v>
@@ -2914,40 +2914,40 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18.51</v>
+        <v>0.1851</v>
       </c>
       <c r="E27" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="F27" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="G27" t="n">
-        <v>5.16</v>
+        <v>0.0516</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="I27" t="n">
-        <v>0.44</v>
+        <v>0.0044</v>
       </c>
       <c r="J27" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="K27" t="n">
-        <v>13.21</v>
+        <v>0.1321</v>
       </c>
       <c r="L27" t="n">
-        <v>4.65</v>
+        <v>0.04650000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>71.38</v>
+        <v>0.7138</v>
       </c>
       <c r="N27" t="n">
-        <v>42.36</v>
+        <v>0.4236</v>
       </c>
       <c r="O27" t="n">
-        <v>81.15000000000001</v>
+        <v>0.8115000000000001</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W27" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="X27" t="n">
         <v>2021</v>
@@ -3007,40 +3007,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18.07</v>
+        <v>0.1807</v>
       </c>
       <c r="E28" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="F28" t="n">
-        <v>2.87</v>
+        <v>0.0287</v>
       </c>
       <c r="G28" t="n">
-        <v>6.32</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>4.12</v>
+        <v>0.0412</v>
       </c>
       <c r="I28" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="J28" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="K28" t="n">
-        <v>9.65</v>
+        <v>0.0965</v>
       </c>
       <c r="L28" t="n">
-        <v>4.9</v>
+        <v>0.049</v>
       </c>
       <c r="M28" t="n">
-        <v>81.56999999999999</v>
+        <v>0.8157</v>
       </c>
       <c r="N28" t="n">
-        <v>40.62</v>
+        <v>0.4061999999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>87.23999999999999</v>
+        <v>0.8724</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3055,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U28" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="V28" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W28" t="n">
-        <v>3.87</v>
+        <v>0.0387</v>
       </c>
       <c r="X28" t="n">
         <v>2021</v>
@@ -3100,40 +3100,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19.4</v>
+        <v>0.194</v>
       </c>
       <c r="E29" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="F29" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="G29" t="n">
-        <v>6.17</v>
+        <v>0.0617</v>
       </c>
       <c r="H29" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="I29" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="J29" t="n">
-        <v>2.65</v>
+        <v>0.0265</v>
       </c>
       <c r="K29" t="n">
-        <v>15.47</v>
+        <v>0.1547</v>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>76.83</v>
+        <v>0.7683</v>
       </c>
       <c r="N29" t="n">
-        <v>41.71</v>
+        <v>0.4171</v>
       </c>
       <c r="O29" t="n">
-        <v>86.77</v>
+        <v>0.8676999999999999</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.03</v>
+        <v>0.0303</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W29" t="n">
-        <v>0.8</v>
+        <v>0.008</v>
       </c>
       <c r="X29" t="n">
         <v>2021</v>
@@ -3193,40 +3193,40 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25.33</v>
+        <v>0.2533</v>
       </c>
       <c r="E30" t="n">
-        <v>1.21</v>
+        <v>0.0121</v>
       </c>
       <c r="F30" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="G30" t="n">
-        <v>3.17</v>
+        <v>0.0317</v>
       </c>
       <c r="H30" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="K30" t="n">
-        <v>16.63</v>
+        <v>0.1663</v>
       </c>
       <c r="L30" t="n">
-        <v>5.25</v>
+        <v>0.0525</v>
       </c>
       <c r="M30" t="n">
-        <v>60.28</v>
+        <v>0.6028</v>
       </c>
       <c r="N30" t="n">
-        <v>38.23</v>
+        <v>0.3823</v>
       </c>
       <c r="O30" t="n">
-        <v>62.35</v>
+        <v>0.6235000000000001</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W30" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="X30" t="n">
         <v>2021</v>
@@ -3286,40 +3286,40 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>18.94</v>
+        <v>0.1894</v>
       </c>
       <c r="E31" t="n">
-        <v>1.84</v>
+        <v>0.0184</v>
       </c>
       <c r="F31" t="n">
-        <v>1.82</v>
+        <v>0.0182</v>
       </c>
       <c r="G31" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="H31" t="n">
-        <v>3.19</v>
+        <v>0.0319</v>
       </c>
       <c r="I31" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="J31" t="n">
-        <v>2.43</v>
+        <v>0.0243</v>
       </c>
       <c r="K31" t="n">
-        <v>15.12</v>
+        <v>0.1512</v>
       </c>
       <c r="L31" t="n">
-        <v>4.63</v>
+        <v>0.0463</v>
       </c>
       <c r="M31" t="n">
-        <v>69.11</v>
+        <v>0.6911</v>
       </c>
       <c r="N31" t="n">
-        <v>40.84</v>
+        <v>0.4084</v>
       </c>
       <c r="O31" t="n">
-        <v>86</v>
+        <v>0.86</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>3.25</v>
+        <v>0.0325</v>
       </c>
       <c r="V31" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W31" t="n">
-        <v>4.55</v>
+        <v>0.0455</v>
       </c>
       <c r="X31" t="n">
         <v>2021</v>
@@ -3379,40 +3379,40 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.18</v>
+        <v>0.1818</v>
       </c>
       <c r="E32" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="F32" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>0.066</v>
       </c>
       <c r="H32" t="n">
-        <v>3.94</v>
+        <v>0.0394</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="K32" t="n">
-        <v>10.03</v>
+        <v>0.1003</v>
       </c>
       <c r="L32" t="n">
-        <v>4.85</v>
+        <v>0.04849999999999999</v>
       </c>
       <c r="M32" t="n">
-        <v>81.20999999999999</v>
+        <v>0.8120999999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>40.73</v>
+        <v>0.4073</v>
       </c>
       <c r="O32" t="n">
-        <v>87.83</v>
+        <v>0.8783</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U32" t="n">
-        <v>3.11</v>
+        <v>0.0311</v>
       </c>
       <c r="V32" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W32" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="X32" t="n">
         <v>2021</v>
@@ -3472,40 +3472,40 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.63</v>
+        <v>0.1963</v>
       </c>
       <c r="E33" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="F33" t="n">
-        <v>2.07</v>
+        <v>0.0207</v>
       </c>
       <c r="G33" t="n">
-        <v>6.66</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="I33" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>2.38</v>
+        <v>0.0238</v>
       </c>
       <c r="K33" t="n">
-        <v>14.53</v>
+        <v>0.1453</v>
       </c>
       <c r="L33" t="n">
-        <v>7.02</v>
+        <v>0.0702</v>
       </c>
       <c r="M33" t="n">
-        <v>78.3</v>
+        <v>0.7829999999999999</v>
       </c>
       <c r="N33" t="n">
-        <v>39.78</v>
+        <v>0.3978</v>
       </c>
       <c r="O33" t="n">
-        <v>84.52</v>
+        <v>0.8452</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3523,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="X33" t="n">
         <v>2021</v>
@@ -3565,40 +3565,40 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>26.15</v>
+        <v>0.2615</v>
       </c>
       <c r="E34" t="n">
-        <v>1.14</v>
+        <v>0.0114</v>
       </c>
       <c r="F34" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="H34" t="n">
-        <v>2.36</v>
+        <v>0.0236</v>
       </c>
       <c r="I34" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="J34" t="n">
-        <v>3.49</v>
+        <v>0.0349</v>
       </c>
       <c r="K34" t="n">
-        <v>18.72</v>
+        <v>0.1872</v>
       </c>
       <c r="L34" t="n">
-        <v>5.17</v>
+        <v>0.0517</v>
       </c>
       <c r="M34" t="n">
-        <v>54.29</v>
+        <v>0.5428999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>35.2</v>
+        <v>0.352</v>
       </c>
       <c r="O34" t="n">
-        <v>61.97</v>
+        <v>0.6197</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3613,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U34" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W34" t="n">
-        <v>0.14</v>
+        <v>0.0014</v>
       </c>
       <c r="X34" t="n">
         <v>2021</v>
@@ -3658,40 +3658,40 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19.4</v>
+        <v>0.194</v>
       </c>
       <c r="E35" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="F35" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="G35" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="H35" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="I35" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="K35" t="n">
-        <v>15.08</v>
+        <v>0.1508</v>
       </c>
       <c r="L35" t="n">
-        <v>4.67</v>
+        <v>0.0467</v>
       </c>
       <c r="M35" t="n">
-        <v>68.81999999999999</v>
+        <v>0.6881999999999999</v>
       </c>
       <c r="N35" t="n">
-        <v>40.63</v>
+        <v>0.4063000000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>83.29000000000001</v>
+        <v>0.8329000000000001</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U35" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="V35" t="n">
-        <v>4.22</v>
+        <v>0.04219999999999999</v>
       </c>
       <c r="W35" t="n">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="X35" t="n">
         <v>2021</v>
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>19.9</v>
+        <v>0.199</v>
       </c>
       <c r="E36" t="n">
-        <v>2.84</v>
+        <v>0.0284</v>
       </c>
       <c r="F36" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="G36" t="n">
-        <v>6.5</v>
+        <v>0.065</v>
       </c>
       <c r="H36" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>1.51</v>
+        <v>0.0151</v>
       </c>
       <c r="K36" t="n">
-        <v>10.27</v>
+        <v>0.1027</v>
       </c>
       <c r="L36" t="n">
-        <v>4.76</v>
+        <v>0.0476</v>
       </c>
       <c r="M36" t="n">
-        <v>80.47</v>
+        <v>0.8047</v>
       </c>
       <c r="N36" t="n">
-        <v>42.07</v>
+        <v>0.4207</v>
       </c>
       <c r="O36" t="n">
-        <v>85.14</v>
+        <v>0.8514</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.3</v>
+        <v>0.013</v>
       </c>
       <c r="U36" t="n">
-        <v>3.09</v>
+        <v>0.0309</v>
       </c>
       <c r="V36" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W36" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="X36" t="n">
         <v>2021</v>
@@ -3844,40 +3844,40 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>24.37</v>
+        <v>0.2437</v>
       </c>
       <c r="E37" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="F37" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="G37" t="n">
-        <v>6.19</v>
+        <v>0.0619</v>
       </c>
       <c r="H37" t="n">
-        <v>3.29</v>
+        <v>0.0329</v>
       </c>
       <c r="I37" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="J37" t="n">
-        <v>2.52</v>
+        <v>0.0252</v>
       </c>
       <c r="K37" t="n">
-        <v>15.28</v>
+        <v>0.1528</v>
       </c>
       <c r="L37" t="n">
-        <v>6.86</v>
+        <v>0.06860000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>76.37</v>
+        <v>0.7637</v>
       </c>
       <c r="N37" t="n">
-        <v>42.07</v>
+        <v>0.4207</v>
       </c>
       <c r="O37" t="n">
-        <v>83.05</v>
+        <v>0.8305</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3892,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U37" t="n">
-        <v>3.6</v>
+        <v>0.036</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W37" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="X37" t="n">
         <v>2021</v>
@@ -3937,40 +3937,40 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25.66</v>
+        <v>0.2566</v>
       </c>
       <c r="E38" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="F38" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="G38" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="H38" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>3.41</v>
+        <v>0.0341</v>
       </c>
       <c r="K38" t="n">
-        <v>18.25</v>
+        <v>0.1825</v>
       </c>
       <c r="L38" t="n">
-        <v>5.1</v>
+        <v>0.051</v>
       </c>
       <c r="M38" t="n">
-        <v>54.15</v>
+        <v>0.5415</v>
       </c>
       <c r="N38" t="n">
-        <v>36.28</v>
+        <v>0.3628</v>
       </c>
       <c r="O38" t="n">
-        <v>61.96</v>
+        <v>0.6196</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U38" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08</v>
+        <v>0.0008</v>
       </c>
       <c r="X38" t="n">
         <v>2021</v>
@@ -4030,40 +4030,40 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>19.6</v>
+        <v>0.196</v>
       </c>
       <c r="E39" t="n">
-        <v>1.63</v>
+        <v>0.0163</v>
       </c>
       <c r="F39" t="n">
-        <v>1.6</v>
+        <v>0.016</v>
       </c>
       <c r="G39" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="H39" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="I39" t="n">
-        <v>0.41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="K39" t="n">
-        <v>16.24</v>
+        <v>0.1624</v>
       </c>
       <c r="L39" t="n">
-        <v>4.73</v>
+        <v>0.0473</v>
       </c>
       <c r="M39" t="n">
-        <v>67.26000000000001</v>
+        <v>0.6726000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>42.54</v>
+        <v>0.4254</v>
       </c>
       <c r="O39" t="n">
-        <v>80.04000000000001</v>
+        <v>0.8004000000000001</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4078,16 +4078,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U39" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="V39" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W39" t="n">
-        <v>4.27</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="X39" t="n">
         <v>2021</v>
@@ -4123,40 +4123,40 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>19.74</v>
+        <v>0.1974</v>
       </c>
       <c r="E40" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="F40" t="n">
-        <v>2.62</v>
+        <v>0.0262</v>
       </c>
       <c r="G40" t="n">
-        <v>6.54</v>
+        <v>0.0654</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="J40" t="n">
-        <v>1.43</v>
+        <v>0.0143</v>
       </c>
       <c r="K40" t="n">
-        <v>10.42</v>
+        <v>0.1042</v>
       </c>
       <c r="L40" t="n">
-        <v>4.67</v>
+        <v>0.0467</v>
       </c>
       <c r="M40" t="n">
-        <v>81.18000000000001</v>
+        <v>0.8118000000000001</v>
       </c>
       <c r="N40" t="n">
-        <v>43.33</v>
+        <v>0.4333</v>
       </c>
       <c r="O40" t="n">
-        <v>79.70999999999999</v>
+        <v>0.7970999999999999</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4171,16 +4171,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="U40" t="n">
-        <v>5.67</v>
+        <v>0.0567</v>
       </c>
       <c r="V40" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="W40" t="n">
-        <v>0.9</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="X40" t="n">
         <v>2021</v>
@@ -4216,40 +4216,40 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>25.28</v>
+        <v>0.2528</v>
       </c>
       <c r="E41" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="F41" t="n">
-        <v>1.77</v>
+        <v>0.0177</v>
       </c>
       <c r="G41" t="n">
-        <v>6.16</v>
+        <v>0.0616</v>
       </c>
       <c r="H41" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>2.72</v>
+        <v>0.0272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.87</v>
+        <v>0.1687</v>
       </c>
       <c r="L41" t="n">
-        <v>6.89</v>
+        <v>0.0689</v>
       </c>
       <c r="M41" t="n">
-        <v>74.3</v>
+        <v>0.743</v>
       </c>
       <c r="N41" t="n">
-        <v>43.26</v>
+        <v>0.4326</v>
       </c>
       <c r="O41" t="n">
-        <v>83.67</v>
+        <v>0.8367</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4264,16 +4264,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5</v>
+        <v>0.005</v>
       </c>
       <c r="U41" t="n">
-        <v>3.97</v>
+        <v>0.0397</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="X41" t="n">
         <v>2021</v>
@@ -4309,37 +4309,37 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>23.86</v>
+        <v>0.2386</v>
       </c>
       <c r="E42" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="F42" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="G42" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="H42" t="n">
-        <v>2.3</v>
+        <v>0.023</v>
       </c>
       <c r="I42" t="n">
-        <v>0.79</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>3.06</v>
+        <v>0.0306</v>
       </c>
       <c r="K42" t="n">
-        <v>16.8</v>
+        <v>0.168</v>
       </c>
       <c r="L42" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73</v>
+        <v>0.5672999999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>35.8</v>
+        <v>0.358</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>4.33</v>
+        <v>0.0433</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="V42" t="n">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4402,40 +4402,40 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>18.2</v>
+        <v>0.182</v>
       </c>
       <c r="E43" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="F43" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="G43" t="n">
-        <v>4.94</v>
+        <v>0.04940000000000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2.74</v>
+        <v>0.0274</v>
       </c>
       <c r="I43" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="J43" t="n">
-        <v>3.34</v>
+        <v>0.0334</v>
       </c>
       <c r="K43" t="n">
-        <v>22.15</v>
+        <v>0.2215</v>
       </c>
       <c r="L43" t="n">
-        <v>5.01</v>
+        <v>0.0501</v>
       </c>
       <c r="M43" t="n">
-        <v>56.37</v>
+        <v>0.5637</v>
       </c>
       <c r="N43" t="n">
-        <v>36.44</v>
+        <v>0.3644</v>
       </c>
       <c r="O43" t="n">
-        <v>83.66</v>
+        <v>0.8366</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4453,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.69</v>
+        <v>0.0469</v>
       </c>
       <c r="V43" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W43" t="n">
-        <v>2.41</v>
+        <v>0.0241</v>
       </c>
       <c r="X43" t="n">
         <v>2022</v>
@@ -4495,40 +4495,40 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>19.29</v>
+        <v>0.1929</v>
       </c>
       <c r="E44" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="F44" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="G44" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="H44" t="n">
-        <v>3.46</v>
+        <v>0.0346</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>2.29</v>
+        <v>0.0229</v>
       </c>
       <c r="K44" t="n">
-        <v>15.23</v>
+        <v>0.1523</v>
       </c>
       <c r="L44" t="n">
-        <v>4.51</v>
+        <v>0.0451</v>
       </c>
       <c r="M44" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="N44" t="n">
-        <v>39.75</v>
+        <v>0.3975</v>
       </c>
       <c r="O44" t="n">
-        <v>85.23999999999999</v>
+        <v>0.8523999999999999</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4543,16 +4543,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.46</v>
+        <v>0.0146</v>
       </c>
       <c r="U44" t="n">
-        <v>4.47</v>
+        <v>0.0447</v>
       </c>
       <c r="V44" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="W44" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="X44" t="n">
         <v>2022</v>
@@ -4588,40 +4588,40 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>22.39</v>
+        <v>0.2239</v>
       </c>
       <c r="E45" t="n">
-        <v>1.99</v>
+        <v>0.0199</v>
       </c>
       <c r="F45" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="G45" t="n">
-        <v>6.53</v>
+        <v>0.0653</v>
       </c>
       <c r="H45" t="n">
-        <v>3.15</v>
+        <v>0.0315</v>
       </c>
       <c r="I45" t="n">
-        <v>0.77</v>
+        <v>0.0077</v>
       </c>
       <c r="J45" t="n">
-        <v>3.56</v>
+        <v>0.0356</v>
       </c>
       <c r="K45" t="n">
-        <v>19.11</v>
+        <v>0.1911</v>
       </c>
       <c r="L45" t="n">
-        <v>6.85</v>
+        <v>0.06849999999999999</v>
       </c>
       <c r="M45" t="n">
-        <v>64.26000000000001</v>
+        <v>0.6426000000000001</v>
       </c>
       <c r="N45" t="n">
-        <v>38.37</v>
+        <v>0.3837</v>
       </c>
       <c r="O45" t="n">
-        <v>87.14</v>
+        <v>0.8714</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -4639,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>4.19</v>
+        <v>0.04190000000000001</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W45" t="n">
-        <v>0.45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="X45" t="n">
         <v>2022</v>
@@ -4681,37 +4681,37 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24.72</v>
+        <v>0.2472</v>
       </c>
       <c r="E46" t="n">
-        <v>1.14</v>
+        <v>0.0114</v>
       </c>
       <c r="F46" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="G46" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="H46" t="n">
-        <v>2.21</v>
+        <v>0.0221</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="J46" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="K46" t="n">
-        <v>19.56</v>
+        <v>0.1956</v>
       </c>
       <c r="L46" t="n">
-        <v>4.98</v>
+        <v>0.0498</v>
       </c>
       <c r="M46" t="n">
-        <v>52.38</v>
+        <v>0.5238</v>
       </c>
       <c r="N46" t="n">
-        <v>34.34</v>
+        <v>0.3434</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4729,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.31</v>
+        <v>0.05309999999999999</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="V46" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4774,40 +4774,40 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>18.41</v>
+        <v>0.1841</v>
       </c>
       <c r="E47" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="F47" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="G47" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="H47" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="I47" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="J47" t="n">
-        <v>3.38</v>
+        <v>0.0338</v>
       </c>
       <c r="K47" t="n">
-        <v>23.03</v>
+        <v>0.2303</v>
       </c>
       <c r="L47" t="n">
-        <v>5.06</v>
+        <v>0.0506</v>
       </c>
       <c r="M47" t="n">
-        <v>55.3</v>
+        <v>0.5529999999999999</v>
       </c>
       <c r="N47" t="n">
-        <v>35.82</v>
+        <v>0.3582</v>
       </c>
       <c r="O47" t="n">
-        <v>84.79000000000001</v>
+        <v>0.8479000000000001</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -4825,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>5.85</v>
+        <v>0.0585</v>
       </c>
       <c r="V47" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W47" t="n">
-        <v>5.54</v>
+        <v>0.0554</v>
       </c>
       <c r="X47" t="n">
         <v>2022</v>
@@ -4867,40 +4867,40 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>18.42</v>
+        <v>0.1842</v>
       </c>
       <c r="E48" t="n">
-        <v>2.3</v>
+        <v>0.023</v>
       </c>
       <c r="F48" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="G48" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="H48" t="n">
-        <v>3.16</v>
+        <v>0.0316</v>
       </c>
       <c r="I48" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="J48" t="n">
-        <v>2.44</v>
+        <v>0.0244</v>
       </c>
       <c r="K48" t="n">
-        <v>16.31</v>
+        <v>0.1631</v>
       </c>
       <c r="L48" t="n">
-        <v>4.7</v>
+        <v>0.047</v>
       </c>
       <c r="M48" t="n">
-        <v>68.59</v>
+        <v>0.6859000000000001</v>
       </c>
       <c r="N48" t="n">
-        <v>40.43</v>
+        <v>0.4043</v>
       </c>
       <c r="O48" t="n">
-        <v>90.06</v>
+        <v>0.9006000000000001</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4915,16 +4915,16 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05</v>
+        <v>0.0005</v>
       </c>
       <c r="U48" t="n">
-        <v>6.19</v>
+        <v>0.0619</v>
       </c>
       <c r="V48" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W48" t="n">
-        <v>2.15</v>
+        <v>0.0215</v>
       </c>
       <c r="X48" t="n">
         <v>2022</v>
@@ -4960,40 +4960,40 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>22.97</v>
+        <v>0.2297</v>
       </c>
       <c r="E49" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="F49" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="G49" t="n">
-        <v>6.74</v>
+        <v>0.0674</v>
       </c>
       <c r="H49" t="n">
-        <v>3.32</v>
+        <v>0.0332</v>
       </c>
       <c r="I49" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="J49" t="n">
-        <v>3.82</v>
+        <v>0.0382</v>
       </c>
       <c r="K49" t="n">
-        <v>21.43</v>
+        <v>0.2143</v>
       </c>
       <c r="L49" t="n">
-        <v>7.35</v>
+        <v>0.0735</v>
       </c>
       <c r="M49" t="n">
-        <v>63.98</v>
+        <v>0.6397999999999999</v>
       </c>
       <c r="N49" t="n">
-        <v>37.11</v>
+        <v>0.3711</v>
       </c>
       <c r="O49" t="n">
-        <v>88.95</v>
+        <v>0.8895000000000001</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -5011,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W49" t="n">
-        <v>0.48</v>
+        <v>0.0048</v>
       </c>
       <c r="X49" t="n">
         <v>2022</v>
@@ -5053,37 +5053,37 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>25.36</v>
+        <v>0.2536</v>
       </c>
       <c r="E50" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="n">
-        <v>3.18</v>
+        <v>0.0318</v>
       </c>
       <c r="H50" t="n">
-        <v>2.16</v>
+        <v>0.0216</v>
       </c>
       <c r="I50" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="J50" t="n">
-        <v>3.69</v>
+        <v>0.0369</v>
       </c>
       <c r="K50" t="n">
-        <v>20.65</v>
+        <v>0.2065</v>
       </c>
       <c r="L50" t="n">
-        <v>5.13</v>
+        <v>0.0513</v>
       </c>
       <c r="M50" t="n">
-        <v>48.55</v>
+        <v>0.4855</v>
       </c>
       <c r="N50" t="n">
-        <v>34.49</v>
+        <v>0.3449</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5101,13 +5101,13 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>7.31</v>
+        <v>0.0731</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="V50" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -5146,40 +5146,40 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>19.32</v>
+        <v>0.1932</v>
       </c>
       <c r="E51" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="F51" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="G51" t="n">
-        <v>4.54</v>
+        <v>0.0454</v>
       </c>
       <c r="H51" t="n">
-        <v>2.26</v>
+        <v>0.0226</v>
       </c>
       <c r="I51" t="n">
-        <v>0.31</v>
+        <v>0.0031</v>
       </c>
       <c r="J51" t="n">
-        <v>3.4</v>
+        <v>0.034</v>
       </c>
       <c r="K51" t="n">
-        <v>23.28</v>
+        <v>0.2328</v>
       </c>
       <c r="L51" t="n">
-        <v>5.12</v>
+        <v>0.0512</v>
       </c>
       <c r="M51" t="n">
-        <v>55.59</v>
+        <v>0.5559000000000001</v>
       </c>
       <c r="N51" t="n">
-        <v>35.82</v>
+        <v>0.3582</v>
       </c>
       <c r="O51" t="n">
-        <v>83.18000000000001</v>
+        <v>0.8318000000000001</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5197,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>8.23</v>
+        <v>0.0823</v>
       </c>
       <c r="V51" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W51" t="n">
-        <v>7.59</v>
+        <v>0.0759</v>
       </c>
       <c r="X51" t="n">
         <v>2022</v>
@@ -5239,40 +5239,40 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>18.9</v>
+        <v>0.189</v>
       </c>
       <c r="E52" t="n">
-        <v>2.22</v>
+        <v>0.0222</v>
       </c>
       <c r="F52" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="G52" t="n">
-        <v>6.38</v>
+        <v>0.0638</v>
       </c>
       <c r="H52" t="n">
-        <v>3.04</v>
+        <v>0.0304</v>
       </c>
       <c r="I52" t="n">
-        <v>0.57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>2.48</v>
+        <v>0.0248</v>
       </c>
       <c r="K52" t="n">
-        <v>16.56</v>
+        <v>0.1656</v>
       </c>
       <c r="L52" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="M52" t="n">
-        <v>68.05</v>
+        <v>0.6805</v>
       </c>
       <c r="N52" t="n">
-        <v>41.37</v>
+        <v>0.4137</v>
       </c>
       <c r="O52" t="n">
-        <v>91.18000000000001</v>
+        <v>0.9118000000000001</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -5287,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0.28</v>
+        <v>0.0028</v>
       </c>
       <c r="U52" t="n">
-        <v>7.91</v>
+        <v>0.0791</v>
       </c>
       <c r="V52" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W52" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="X52" t="n">
         <v>2022</v>
@@ -5332,40 +5332,40 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="E53" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="F53" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="G53" t="n">
-        <v>6.51</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>3.14</v>
+        <v>0.0314</v>
       </c>
       <c r="I53" t="n">
-        <v>0.87</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>3.97</v>
+        <v>0.0397</v>
       </c>
       <c r="K53" t="n">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="L53" t="n">
-        <v>7.23</v>
+        <v>0.0723</v>
       </c>
       <c r="M53" t="n">
-        <v>62.59</v>
+        <v>0.6259</v>
       </c>
       <c r="N53" t="n">
-        <v>38.99</v>
+        <v>0.3899</v>
       </c>
       <c r="O53" t="n">
-        <v>88.92</v>
+        <v>0.8892</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -5383,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>7.55</v>
+        <v>0.0755</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W53" t="n">
-        <v>0.34</v>
+        <v>0.0034</v>
       </c>
       <c r="X53" t="n">
         <v>2022</v>
@@ -5425,40 +5425,40 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>25.77</v>
+        <v>0.2577</v>
       </c>
       <c r="E54" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>3.01</v>
+        <v>0.0301</v>
       </c>
       <c r="H54" t="n">
-        <v>1.71</v>
+        <v>0.0171</v>
       </c>
       <c r="I54" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="J54" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="K54" t="n">
-        <v>21.7</v>
+        <v>0.217</v>
       </c>
       <c r="L54" t="n">
-        <v>5.34</v>
+        <v>0.0534</v>
       </c>
       <c r="M54" t="n">
-        <v>46.54</v>
+        <v>0.4654</v>
       </c>
       <c r="N54" t="n">
-        <v>33.92</v>
+        <v>0.3392</v>
       </c>
       <c r="O54" t="n">
-        <v>65.23</v>
+        <v>0.6523</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -5476,13 +5476,13 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>7.48</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W54" t="n">
-        <v>0.12</v>
+        <v>0.0012</v>
       </c>
       <c r="X54" t="n">
         <v>2022</v>
@@ -5518,40 +5518,40 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>19.46</v>
+        <v>0.1946</v>
       </c>
       <c r="E55" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="F55" t="n">
-        <v>1.09</v>
+        <v>0.0109</v>
       </c>
       <c r="G55" t="n">
-        <v>3.91</v>
+        <v>0.0391</v>
       </c>
       <c r="H55" t="n">
-        <v>1.88</v>
+        <v>0.0188</v>
       </c>
       <c r="I55" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="J55" t="n">
-        <v>3.3</v>
+        <v>0.033</v>
       </c>
       <c r="K55" t="n">
-        <v>22.62</v>
+        <v>0.2262</v>
       </c>
       <c r="L55" t="n">
-        <v>5.16</v>
+        <v>0.0516</v>
       </c>
       <c r="M55" t="n">
-        <v>57.35</v>
+        <v>0.5735</v>
       </c>
       <c r="N55" t="n">
-        <v>38.19</v>
+        <v>0.3819</v>
       </c>
       <c r="O55" t="n">
-        <v>77.61</v>
+        <v>0.7761</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -5569,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>8.529999999999999</v>
+        <v>0.08529999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W55" t="n">
-        <v>9.779999999999999</v>
+        <v>0.0978</v>
       </c>
       <c r="X55" t="n">
         <v>2022</v>
@@ -5611,40 +5611,40 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>19.27</v>
+        <v>0.1927</v>
       </c>
       <c r="E56" t="n">
-        <v>2.02</v>
+        <v>0.0202</v>
       </c>
       <c r="F56" t="n">
-        <v>1.92</v>
+        <v>0.0192</v>
       </c>
       <c r="G56" t="n">
-        <v>5.99</v>
+        <v>0.0599</v>
       </c>
       <c r="H56" t="n">
-        <v>2.81</v>
+        <v>0.0281</v>
       </c>
       <c r="I56" t="n">
-        <v>0.49</v>
+        <v>0.0049</v>
       </c>
       <c r="J56" t="n">
-        <v>2.46</v>
+        <v>0.0246</v>
       </c>
       <c r="K56" t="n">
-        <v>16.39</v>
+        <v>0.1639</v>
       </c>
       <c r="L56" t="n">
-        <v>4.81</v>
+        <v>0.0481</v>
       </c>
       <c r="M56" t="n">
-        <v>68.63</v>
+        <v>0.6862999999999999</v>
       </c>
       <c r="N56" t="n">
-        <v>42.62</v>
+        <v>0.4262</v>
       </c>
       <c r="O56" t="n">
-        <v>84.25</v>
+        <v>0.8425</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -5659,16 +5659,16 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
       </c>
       <c r="U56" t="n">
-        <v>11.79</v>
+        <v>0.1179</v>
       </c>
       <c r="V56" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W56" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="X56" t="n">
         <v>2022</v>
@@ -5704,40 +5704,40 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>23.3</v>
+        <v>0.233</v>
       </c>
       <c r="E57" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="F57" t="n">
-        <v>1.72</v>
+        <v>0.0172</v>
       </c>
       <c r="G57" t="n">
-        <v>6.11</v>
+        <v>0.0611</v>
       </c>
       <c r="H57" t="n">
-        <v>2.82</v>
+        <v>0.0282</v>
       </c>
       <c r="I57" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="J57" t="n">
-        <v>3.76</v>
+        <v>0.03759999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>20.93</v>
+        <v>0.2093</v>
       </c>
       <c r="L57" t="n">
-        <v>6.8</v>
+        <v>0.068</v>
       </c>
       <c r="M57" t="n">
-        <v>64.2</v>
+        <v>0.642</v>
       </c>
       <c r="N57" t="n">
-        <v>41.95</v>
+        <v>0.4195</v>
       </c>
       <c r="O57" t="n">
-        <v>79.17</v>
+        <v>0.7917000000000001</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5755,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>12.11</v>
+        <v>0.1211</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W57" t="n">
-        <v>0.85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="X57" t="n">
         <v>2022</v>
@@ -5797,40 +5797,40 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>28.86</v>
+        <v>0.2886</v>
       </c>
       <c r="E58" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.83</v>
+        <v>0.0083</v>
       </c>
       <c r="G58" t="n">
-        <v>3.05</v>
+        <v>0.0305</v>
       </c>
       <c r="H58" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="I58" t="n">
-        <v>0.57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>4.2</v>
+        <v>0.042</v>
       </c>
       <c r="K58" t="n">
-        <v>22.28</v>
+        <v>0.2228</v>
       </c>
       <c r="L58" t="n">
-        <v>5.59</v>
+        <v>0.0559</v>
       </c>
       <c r="M58" t="n">
-        <v>47.65</v>
+        <v>0.4765</v>
       </c>
       <c r="N58" t="n">
-        <v>34.42</v>
+        <v>0.3442</v>
       </c>
       <c r="O58" t="n">
-        <v>65.61</v>
+        <v>0.6561</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5848,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="X58" t="n">
         <v>2023</v>
@@ -5890,40 +5890,40 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>19.52</v>
+        <v>0.1952</v>
       </c>
       <c r="E59" t="n">
-        <v>1.06</v>
+        <v>0.0106</v>
       </c>
       <c r="F59" t="n">
-        <v>1.04</v>
+        <v>0.0104</v>
       </c>
       <c r="G59" t="n">
-        <v>4.05</v>
+        <v>0.0405</v>
       </c>
       <c r="H59" t="n">
-        <v>1.7</v>
+        <v>0.017</v>
       </c>
       <c r="I59" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="J59" t="n">
-        <v>3.59</v>
+        <v>0.0359</v>
       </c>
       <c r="K59" t="n">
-        <v>24.56</v>
+        <v>0.2456</v>
       </c>
       <c r="L59" t="n">
-        <v>5.11</v>
+        <v>0.05110000000000001</v>
       </c>
       <c r="M59" t="n">
-        <v>54.83</v>
+        <v>0.5483</v>
       </c>
       <c r="N59" t="n">
-        <v>33.46</v>
+        <v>0.3346</v>
       </c>
       <c r="O59" t="n">
-        <v>84.90000000000001</v>
+        <v>0.8490000000000001</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>7.43</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="V59" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W59" t="n">
-        <v>1.58</v>
+        <v>0.0158</v>
       </c>
       <c r="X59" t="n">
         <v>2023</v>
@@ -5983,40 +5983,40 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>21.61</v>
+        <v>0.2161</v>
       </c>
       <c r="E60" t="n">
-        <v>1.96</v>
+        <v>0.0196</v>
       </c>
       <c r="F60" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="G60" t="n">
-        <v>5.9</v>
+        <v>0.059</v>
       </c>
       <c r="H60" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="I60" t="n">
-        <v>0.53</v>
+        <v>0.0053</v>
       </c>
       <c r="J60" t="n">
-        <v>2.67</v>
+        <v>0.0267</v>
       </c>
       <c r="K60" t="n">
-        <v>17.11</v>
+        <v>0.1711</v>
       </c>
       <c r="L60" t="n">
-        <v>4.68</v>
+        <v>0.04679999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>66.25</v>
+        <v>0.6625</v>
       </c>
       <c r="N60" t="n">
-        <v>41.67</v>
+        <v>0.4167</v>
       </c>
       <c r="O60" t="n">
-        <v>85.43000000000001</v>
+        <v>0.8543000000000001</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -6034,13 +6034,13 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>7.82</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="V60" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W60" t="n">
-        <v>2.75</v>
+        <v>0.0275</v>
       </c>
       <c r="X60" t="n">
         <v>2023</v>
@@ -6076,40 +6076,40 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>23.01</v>
+        <v>0.2301</v>
       </c>
       <c r="E61" t="n">
-        <v>1.94</v>
+        <v>0.0194</v>
       </c>
       <c r="F61" t="n">
-        <v>1.93</v>
+        <v>0.0193</v>
       </c>
       <c r="G61" t="n">
-        <v>6.1</v>
+        <v>0.061</v>
       </c>
       <c r="H61" t="n">
-        <v>3.02</v>
+        <v>0.0302</v>
       </c>
       <c r="I61" t="n">
-        <v>0.82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>4.11</v>
+        <v>0.0411</v>
       </c>
       <c r="K61" t="n">
-        <v>23.75</v>
+        <v>0.2375</v>
       </c>
       <c r="L61" t="n">
-        <v>6.67</v>
+        <v>0.0667</v>
       </c>
       <c r="M61" t="n">
-        <v>60.7</v>
+        <v>0.607</v>
       </c>
       <c r="N61" t="n">
-        <v>37.37</v>
+        <v>0.3737</v>
       </c>
       <c r="O61" t="n">
-        <v>85.26000000000001</v>
+        <v>0.8526</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>7.09</v>
+        <v>0.0709</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W61" t="n">
-        <v>0.43</v>
+        <v>0.0043</v>
       </c>
       <c r="X61" t="n">
         <v>2023</v>
@@ -6169,40 +6169,40 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>29.47</v>
+        <v>0.2947</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F62" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>2.98</v>
+        <v>0.0298</v>
       </c>
       <c r="H62" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="I62" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="J62" t="n">
-        <v>4.49</v>
+        <v>0.0449</v>
       </c>
       <c r="K62" t="n">
-        <v>24.18</v>
+        <v>0.2418</v>
       </c>
       <c r="L62" t="n">
-        <v>5.56</v>
+        <v>0.0556</v>
       </c>
       <c r="M62" t="n">
-        <v>43.49</v>
+        <v>0.4349</v>
       </c>
       <c r="N62" t="n">
-        <v>32.54</v>
+        <v>0.3254</v>
       </c>
       <c r="O62" t="n">
-        <v>65.75</v>
+        <v>0.6575</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -6220,13 +6220,13 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>7.55</v>
+        <v>0.0755</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W62" t="n">
-        <v>0.15</v>
+        <v>0.0015</v>
       </c>
       <c r="X62" t="n">
         <v>2023</v>
@@ -6262,40 +6262,40 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>19.96</v>
+        <v>0.1996</v>
       </c>
       <c r="E63" t="n">
-        <v>0.98</v>
+        <v>0.0098</v>
       </c>
       <c r="F63" t="n">
-        <v>0.96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>3.82</v>
+        <v>0.0382</v>
       </c>
       <c r="H63" t="n">
-        <v>1.53</v>
+        <v>0.0153</v>
       </c>
       <c r="I63" t="n">
-        <v>0.29</v>
+        <v>0.0029</v>
       </c>
       <c r="J63" t="n">
-        <v>3.72</v>
+        <v>0.0372</v>
       </c>
       <c r="K63" t="n">
-        <v>25.78</v>
+        <v>0.2578</v>
       </c>
       <c r="L63" t="n">
-        <v>5.3</v>
+        <v>0.053</v>
       </c>
       <c r="M63" t="n">
-        <v>54.09</v>
+        <v>0.5409</v>
       </c>
       <c r="N63" t="n">
-        <v>32.82</v>
+        <v>0.3282</v>
       </c>
       <c r="O63" t="n">
-        <v>85.68000000000001</v>
+        <v>0.8568000000000001</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -6313,13 +6313,13 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>7.69</v>
+        <v>0.07690000000000001</v>
       </c>
       <c r="V63" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W63" t="n">
-        <v>1.34</v>
+        <v>0.0134</v>
       </c>
       <c r="X63" t="n">
         <v>2023</v>
@@ -6355,40 +6355,40 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>21.61</v>
+        <v>0.2161</v>
       </c>
       <c r="E64" t="n">
-        <v>1.76</v>
+        <v>0.0176</v>
       </c>
       <c r="F64" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="G64" t="n">
-        <v>5.7</v>
+        <v>0.057</v>
       </c>
       <c r="H64" t="n">
-        <v>2.45</v>
+        <v>0.0245</v>
       </c>
       <c r="I64" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="J64" t="n">
-        <v>2.59</v>
+        <v>0.0259</v>
       </c>
       <c r="K64" t="n">
-        <v>16.97</v>
+        <v>0.1697</v>
       </c>
       <c r="L64" t="n">
-        <v>4.58</v>
+        <v>0.0458</v>
       </c>
       <c r="M64" t="n">
-        <v>67.39</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>41.14</v>
+        <v>0.4114</v>
       </c>
       <c r="O64" t="n">
-        <v>85.20999999999999</v>
+        <v>0.8521</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -6403,16 +6403,16 @@
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0.04</v>
+        <v>0.0004</v>
       </c>
       <c r="U64" t="n">
-        <v>8.08</v>
+        <v>0.0808</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W64" t="n">
-        <v>1.8</v>
+        <v>0.018</v>
       </c>
       <c r="X64" t="n">
         <v>2023</v>
@@ -6448,40 +6448,40 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>24.65</v>
+        <v>0.2465</v>
       </c>
       <c r="E65" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="F65" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="G65" t="n">
-        <v>5.78</v>
+        <v>0.0578</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>0.031</v>
       </c>
       <c r="I65" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="J65" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="K65" t="n">
-        <v>23.11</v>
+        <v>0.2311</v>
       </c>
       <c r="L65" t="n">
-        <v>6.81</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="M65" t="n">
-        <v>64.20999999999999</v>
+        <v>0.6420999999999999</v>
       </c>
       <c r="N65" t="n">
-        <v>38.96</v>
+        <v>0.3896</v>
       </c>
       <c r="O65" t="n">
-        <v>87.83</v>
+        <v>0.8783</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -6499,13 +6499,13 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>7.04</v>
+        <v>0.0704</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W65" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="X65" t="n">
         <v>2023</v>
@@ -6541,40 +6541,40 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>29.5</v>
+        <v>0.295</v>
       </c>
       <c r="E66" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="F66" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="G66" t="n">
-        <v>2.88</v>
+        <v>0.0288</v>
       </c>
       <c r="H66" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="I66" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="J66" t="n">
-        <v>4.42</v>
+        <v>0.0442</v>
       </c>
       <c r="K66" t="n">
-        <v>23.53</v>
+        <v>0.2353</v>
       </c>
       <c r="L66" t="n">
-        <v>5.52</v>
+        <v>0.0552</v>
       </c>
       <c r="M66" t="n">
-        <v>43.79</v>
+        <v>0.4379</v>
       </c>
       <c r="N66" t="n">
-        <v>33.08</v>
+        <v>0.3308</v>
       </c>
       <c r="O66" t="n">
-        <v>67.41</v>
+        <v>0.6740999999999999</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6592,13 +6592,13 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>7.25</v>
+        <v>0.0725</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W66" t="n">
-        <v>0.22</v>
+        <v>0.0022</v>
       </c>
       <c r="X66" t="n">
         <v>2023</v>
@@ -6634,40 +6634,40 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>20.68</v>
+        <v>0.2068</v>
       </c>
       <c r="E67" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="F67" t="n">
-        <v>0.88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>3.45</v>
+        <v>0.0345</v>
       </c>
       <c r="H67" t="n">
-        <v>1.36</v>
+        <v>0.0136</v>
       </c>
       <c r="I67" t="n">
-        <v>0.32</v>
+        <v>0.0032</v>
       </c>
       <c r="J67" t="n">
-        <v>3.85</v>
+        <v>0.0385</v>
       </c>
       <c r="K67" t="n">
-        <v>26.34</v>
+        <v>0.2634</v>
       </c>
       <c r="L67" t="n">
-        <v>5.35</v>
+        <v>0.0535</v>
       </c>
       <c r="M67" t="n">
-        <v>52.92</v>
+        <v>0.5292</v>
       </c>
       <c r="N67" t="n">
-        <v>33.94</v>
+        <v>0.3394</v>
       </c>
       <c r="O67" t="n">
-        <v>87.64</v>
+        <v>0.8764</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>7.89</v>
+        <v>0.0789</v>
       </c>
       <c r="V67" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W67" t="n">
-        <v>1.23</v>
+        <v>0.0123</v>
       </c>
       <c r="X67" t="n">
         <v>2023</v>
@@ -6727,40 +6727,40 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>21.88</v>
+        <v>0.2188</v>
       </c>
       <c r="E68" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="F68" t="n">
-        <v>1.59</v>
+        <v>0.0159</v>
       </c>
       <c r="G68" t="n">
-        <v>5.63</v>
+        <v>0.0563</v>
       </c>
       <c r="H68" t="n">
-        <v>2.27</v>
+        <v>0.0227</v>
       </c>
       <c r="I68" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="J68" t="n">
-        <v>2.64</v>
+        <v>0.0264</v>
       </c>
       <c r="K68" t="n">
-        <v>17.17</v>
+        <v>0.1717</v>
       </c>
       <c r="L68" t="n">
-        <v>4.64</v>
+        <v>0.0464</v>
       </c>
       <c r="M68" t="n">
-        <v>67.39</v>
+        <v>0.6739000000000001</v>
       </c>
       <c r="N68" t="n">
-        <v>41.26</v>
+        <v>0.4126</v>
       </c>
       <c r="O68" t="n">
-        <v>90.05</v>
+        <v>0.9005</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -6778,13 +6778,13 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>8.210000000000001</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W68" t="n">
-        <v>1.25</v>
+        <v>0.0125</v>
       </c>
       <c r="X68" t="n">
         <v>2023</v>
@@ -6820,40 +6820,40 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>25.23</v>
+        <v>0.2523</v>
       </c>
       <c r="E69" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="F69" t="n">
-        <v>2.09</v>
+        <v>0.0209</v>
       </c>
       <c r="G69" t="n">
-        <v>5.61</v>
+        <v>0.0561</v>
       </c>
       <c r="H69" t="n">
-        <v>3.23</v>
+        <v>0.0323</v>
       </c>
       <c r="I69" t="n">
-        <v>0.73</v>
+        <v>0.0073</v>
       </c>
       <c r="J69" t="n">
-        <v>3.87</v>
+        <v>0.0387</v>
       </c>
       <c r="K69" t="n">
-        <v>22.74</v>
+        <v>0.2274</v>
       </c>
       <c r="L69" t="n">
-        <v>6.97</v>
+        <v>0.0697</v>
       </c>
       <c r="M69" t="n">
-        <v>64.77</v>
+        <v>0.6476999999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>37.63</v>
+        <v>0.3763</v>
       </c>
       <c r="O69" t="n">
-        <v>88.34</v>
+        <v>0.8834000000000001</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
@@ -6871,13 +6871,13 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>6.77</v>
+        <v>0.0677</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W69" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="X69" t="n">
         <v>2023</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>29.44</v>
+        <v>0.2944</v>
       </c>
       <c r="E70" t="n">
-        <v>0.99</v>
+        <v>0.009899999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.89</v>
+        <v>0.0089</v>
       </c>
       <c r="G70" t="n">
-        <v>2.75</v>
+        <v>0.0275</v>
       </c>
       <c r="H70" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="I70" t="n">
-        <v>0.58</v>
+        <v>0.0058</v>
       </c>
       <c r="J70" t="n">
-        <v>4.46</v>
+        <v>0.0446</v>
       </c>
       <c r="K70" t="n">
-        <v>23.49</v>
+        <v>0.2349</v>
       </c>
       <c r="L70" t="n">
-        <v>5.54</v>
+        <v>0.0554</v>
       </c>
       <c r="M70" t="n">
-        <v>43.7</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="N70" t="n">
-        <v>34.13</v>
+        <v>0.3413</v>
       </c>
       <c r="O70" t="n">
-        <v>70.2</v>
+        <v>0.7020000000000001</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -6964,13 +6964,13 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>6.4</v>
+        <v>0.064</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W70" t="n">
-        <v>0.11</v>
+        <v>0.0011</v>
       </c>
       <c r="X70" t="n">
         <v>2023</v>
@@ -7006,40 +7006,40 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>21.48</v>
+        <v>0.2148</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="G71" t="n">
-        <v>2.87</v>
+        <v>0.0287</v>
       </c>
       <c r="H71" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="I71" t="n">
-        <v>0.29</v>
+        <v>0.0029</v>
       </c>
       <c r="J71" t="n">
-        <v>4.03</v>
+        <v>0.0403</v>
       </c>
       <c r="K71" t="n">
-        <v>27.31</v>
+        <v>0.2731</v>
       </c>
       <c r="L71" t="n">
-        <v>5.25</v>
+        <v>0.0525</v>
       </c>
       <c r="M71" t="n">
-        <v>51.88</v>
+        <v>0.5188</v>
       </c>
       <c r="N71" t="n">
-        <v>34.36</v>
+        <v>0.3436</v>
       </c>
       <c r="O71" t="n">
-        <v>86.75</v>
+        <v>0.8675</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -7057,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="V71" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W71" t="n">
-        <v>1.28</v>
+        <v>0.0128</v>
       </c>
       <c r="X71" t="n">
         <v>2023</v>
@@ -7099,40 +7099,40 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>21.95</v>
+        <v>0.2195</v>
       </c>
       <c r="E72" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="F72" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="G72" t="n">
-        <v>5.19</v>
+        <v>0.0519</v>
       </c>
       <c r="H72" t="n">
-        <v>2.14</v>
+        <v>0.0214</v>
       </c>
       <c r="I72" t="n">
-        <v>0.61</v>
+        <v>0.0061</v>
       </c>
       <c r="J72" t="n">
-        <v>2.6</v>
+        <v>0.026</v>
       </c>
       <c r="K72" t="n">
-        <v>16.84</v>
+        <v>0.1684</v>
       </c>
       <c r="L72" t="n">
-        <v>4.58</v>
+        <v>0.0458</v>
       </c>
       <c r="M72" t="n">
-        <v>68.40000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="N72" t="n">
-        <v>42.9</v>
+        <v>0.429</v>
       </c>
       <c r="O72" t="n">
-        <v>85.81</v>
+        <v>0.8581</v>
       </c>
       <c r="P72" t="n">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>9.529999999999999</v>
+        <v>0.0953</v>
       </c>
       <c r="V72" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W72" t="n">
-        <v>1.68</v>
+        <v>0.0168</v>
       </c>
       <c r="X72" t="n">
         <v>2023</v>
@@ -7192,40 +7192,40 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>25.23</v>
+        <v>0.2523</v>
       </c>
       <c r="E73" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="F73" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="G73" t="n">
-        <v>5.24</v>
+        <v>0.0524</v>
       </c>
       <c r="H73" t="n">
-        <v>3.12</v>
+        <v>0.0312</v>
       </c>
       <c r="I73" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="J73" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="K73" t="n">
-        <v>22.94</v>
+        <v>0.2294</v>
       </c>
       <c r="L73" t="n">
-        <v>6.84</v>
+        <v>0.0684</v>
       </c>
       <c r="M73" t="n">
-        <v>64.34999999999999</v>
+        <v>0.6435</v>
       </c>
       <c r="N73" t="n">
-        <v>37.74</v>
+        <v>0.3774</v>
       </c>
       <c r="O73" t="n">
-        <v>84.73</v>
+        <v>0.8473000000000001</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -7243,13 +7243,13 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>8.050000000000001</v>
+        <v>0.0805</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W73" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="X73" t="n">
         <v>2023</v>
@@ -7285,40 +7285,40 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>26.3</v>
+        <v>0.263</v>
       </c>
       <c r="E74" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="F74" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>2.71</v>
+        <v>0.0271</v>
       </c>
       <c r="H74" t="n">
-        <v>1.95</v>
+        <v>0.0195</v>
       </c>
       <c r="I74" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="J74" t="n">
-        <v>4.4</v>
+        <v>0.044</v>
       </c>
       <c r="K74" t="n">
-        <v>22.7</v>
+        <v>0.227</v>
       </c>
       <c r="L74" t="n">
-        <v>5.62</v>
+        <v>0.0562</v>
       </c>
       <c r="M74" t="n">
-        <v>43.96</v>
+        <v>0.4396</v>
       </c>
       <c r="N74" t="n">
-        <v>32.41</v>
+        <v>0.3240999999999999</v>
       </c>
       <c r="O74" t="n">
-        <v>71.23</v>
+        <v>0.7123</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -7336,13 +7336,13 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>6.21</v>
+        <v>0.0621</v>
       </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W74" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="X74" t="n">
         <v>2024</v>
@@ -7378,40 +7378,40 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>19.01</v>
+        <v>0.1901</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="G75" t="n">
-        <v>2.77</v>
+        <v>0.0277</v>
       </c>
       <c r="H75" t="n">
-        <v>1.02</v>
+        <v>0.0102</v>
       </c>
       <c r="I75" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="J75" t="n">
-        <v>3.31</v>
+        <v>0.0331</v>
       </c>
       <c r="K75" t="n">
-        <v>21.52</v>
+        <v>0.2152</v>
       </c>
       <c r="L75" t="n">
-        <v>4.89</v>
+        <v>0.0489</v>
       </c>
       <c r="M75" t="n">
-        <v>58.38</v>
+        <v>0.5838</v>
       </c>
       <c r="N75" t="n">
-        <v>34.31</v>
+        <v>0.3431</v>
       </c>
       <c r="O75" t="n">
-        <v>89.66</v>
+        <v>0.8966</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -7429,13 +7429,13 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>7.01</v>
+        <v>0.0701</v>
       </c>
       <c r="V75" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W75" t="n">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="X75" t="n">
         <v>2024</v>
@@ -7471,40 +7471,40 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>20.52</v>
+        <v>0.2052</v>
       </c>
       <c r="E76" t="n">
-        <v>1.48</v>
+        <v>0.0148</v>
       </c>
       <c r="F76" t="n">
-        <v>1.41</v>
+        <v>0.0141</v>
       </c>
       <c r="G76" t="n">
-        <v>5.08</v>
+        <v>0.0508</v>
       </c>
       <c r="H76" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="I76" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="J76" t="n">
-        <v>2.49</v>
+        <v>0.0249</v>
       </c>
       <c r="K76" t="n">
-        <v>16.16</v>
+        <v>0.1616</v>
       </c>
       <c r="L76" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="M76" t="n">
-        <v>69.13</v>
+        <v>0.6912999999999999</v>
       </c>
       <c r="N76" t="n">
-        <v>43.18</v>
+        <v>0.4318</v>
       </c>
       <c r="O76" t="n">
-        <v>89.01000000000001</v>
+        <v>0.8901</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
@@ -7522,13 +7522,13 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>7.32</v>
+        <v>0.0732</v>
       </c>
       <c r="V76" t="n">
-        <v>4.01</v>
+        <v>0.0401</v>
       </c>
       <c r="W76" t="n">
-        <v>1.83</v>
+        <v>0.0183</v>
       </c>
       <c r="X76" t="n">
         <v>2024</v>
@@ -7564,40 +7564,40 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>21.87</v>
+        <v>0.2187</v>
       </c>
       <c r="E77" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="F77" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="G77" t="n">
-        <v>5.05</v>
+        <v>0.0505</v>
       </c>
       <c r="H77" t="n">
-        <v>3.27</v>
+        <v>0.0327</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J77" t="n">
-        <v>3.69</v>
+        <v>0.0369</v>
       </c>
       <c r="K77" t="n">
-        <v>23.28</v>
+        <v>0.2328</v>
       </c>
       <c r="L77" t="n">
-        <v>6.59</v>
+        <v>0.0659</v>
       </c>
       <c r="M77" t="n">
-        <v>67.73</v>
+        <v>0.6773</v>
       </c>
       <c r="N77" t="n">
-        <v>34.25</v>
+        <v>0.3425</v>
       </c>
       <c r="O77" t="n">
-        <v>83.78</v>
+        <v>0.8378</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -7615,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>6.04</v>
+        <v>0.0604</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W77" t="n">
-        <v>3.08</v>
+        <v>0.0308</v>
       </c>
       <c r="X77" t="n">
         <v>2024</v>
@@ -7657,40 +7657,40 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>27.76</v>
+        <v>0.2776</v>
       </c>
       <c r="E78" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="F78" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="H78" t="n">
-        <v>2.2</v>
+        <v>0.022</v>
       </c>
       <c r="I78" t="n">
-        <v>0.76</v>
+        <v>0.0076</v>
       </c>
       <c r="J78" t="n">
-        <v>4.72</v>
+        <v>0.0472</v>
       </c>
       <c r="K78" t="n">
-        <v>24.77</v>
+        <v>0.2477</v>
       </c>
       <c r="L78" t="n">
-        <v>5.69</v>
+        <v>0.05690000000000001</v>
       </c>
       <c r="M78" t="n">
-        <v>41.08</v>
+        <v>0.4108</v>
       </c>
       <c r="N78" t="n">
-        <v>30.65</v>
+        <v>0.3065</v>
       </c>
       <c r="O78" t="n">
-        <v>72.73999999999999</v>
+        <v>0.7273999999999999</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -7708,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>5.02</v>
+        <v>0.05019999999999999</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W78" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="X78" t="n">
         <v>2024</v>
@@ -7750,40 +7750,40 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>19.35</v>
+        <v>0.1935</v>
       </c>
       <c r="E79" t="n">
-        <v>0.71</v>
+        <v>0.0071</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.0069</v>
       </c>
       <c r="G79" t="n">
-        <v>2.6</v>
+        <v>0.026</v>
       </c>
       <c r="H79" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="I79" t="n">
-        <v>0.35</v>
+        <v>0.0035</v>
       </c>
       <c r="J79" t="n">
-        <v>3.58</v>
+        <v>0.0358</v>
       </c>
       <c r="K79" t="n">
-        <v>24.39</v>
+        <v>0.2439</v>
       </c>
       <c r="L79" t="n">
-        <v>4.92</v>
+        <v>0.0492</v>
       </c>
       <c r="M79" t="n">
-        <v>55.88</v>
+        <v>0.5588000000000001</v>
       </c>
       <c r="N79" t="n">
-        <v>32.43</v>
+        <v>0.3243</v>
       </c>
       <c r="O79" t="n">
-        <v>90.48</v>
+        <v>0.9048</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>5.41</v>
+        <v>0.0541</v>
       </c>
       <c r="V79" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W79" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="X79" t="n">
         <v>2024</v>
@@ -7843,40 +7843,40 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>20.67</v>
+        <v>0.2067</v>
       </c>
       <c r="E80" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="F80" t="n">
-        <v>1.39</v>
+        <v>0.0139</v>
       </c>
       <c r="G80" t="n">
-        <v>4.56</v>
+        <v>0.04559999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="I80" t="n">
-        <v>0.62</v>
+        <v>0.0062</v>
       </c>
       <c r="J80" t="n">
-        <v>2.46</v>
+        <v>0.0246</v>
       </c>
       <c r="K80" t="n">
-        <v>16.29</v>
+        <v>0.1629</v>
       </c>
       <c r="L80" t="n">
-        <v>4.02</v>
+        <v>0.04019999999999999</v>
       </c>
       <c r="M80" t="n">
-        <v>69.43000000000001</v>
+        <v>0.6943</v>
       </c>
       <c r="N80" t="n">
-        <v>43.73</v>
+        <v>0.4373</v>
       </c>
       <c r="O80" t="n">
-        <v>93.98999999999999</v>
+        <v>0.9399</v>
       </c>
       <c r="P80" t="n">
         <v>0</v>
@@ -7894,13 +7894,13 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>6.03</v>
+        <v>0.0603</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W80" t="n">
-        <v>1.13</v>
+        <v>0.0113</v>
       </c>
       <c r="X80" t="n">
         <v>2024</v>
@@ -7936,40 +7936,40 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>23.23</v>
+        <v>0.2323</v>
       </c>
       <c r="E81" t="n">
-        <v>2.13</v>
+        <v>0.0213</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>0.0212</v>
       </c>
       <c r="G81" t="n">
-        <v>4.83</v>
+        <v>0.0483</v>
       </c>
       <c r="H81" t="n">
-        <v>3.21</v>
+        <v>0.0321</v>
       </c>
       <c r="I81" t="n">
-        <v>0.86</v>
+        <v>0.0086</v>
       </c>
       <c r="J81" t="n">
-        <v>3.84</v>
+        <v>0.0384</v>
       </c>
       <c r="K81" t="n">
-        <v>24.32</v>
+        <v>0.2432</v>
       </c>
       <c r="L81" t="n">
-        <v>6.41</v>
+        <v>0.0641</v>
       </c>
       <c r="M81" t="n">
-        <v>67.38</v>
+        <v>0.6738</v>
       </c>
       <c r="N81" t="n">
-        <v>37.47</v>
+        <v>0.3747</v>
       </c>
       <c r="O81" t="n">
-        <v>87.19</v>
+        <v>0.8719</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>5.6</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W81" t="n">
-        <v>2.47</v>
+        <v>0.0247</v>
       </c>
       <c r="X81" t="n">
         <v>2024</v>
@@ -8029,40 +8029,40 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>29.31</v>
+        <v>0.2931</v>
       </c>
       <c r="E82" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="F82" t="n">
-        <v>1.05</v>
+        <v>0.0105</v>
       </c>
       <c r="G82" t="n">
-        <v>2.7</v>
+        <v>0.027</v>
       </c>
       <c r="H82" t="n">
-        <v>2.11</v>
+        <v>0.0211</v>
       </c>
       <c r="I82" t="n">
-        <v>0.72</v>
+        <v>0.0072</v>
       </c>
       <c r="J82" t="n">
-        <v>4.79</v>
+        <v>0.0479</v>
       </c>
       <c r="K82" t="n">
-        <v>24.7</v>
+        <v>0.247</v>
       </c>
       <c r="L82" t="n">
-        <v>5.78</v>
+        <v>0.0578</v>
       </c>
       <c r="M82" t="n">
-        <v>41.22</v>
+        <v>0.4122</v>
       </c>
       <c r="N82" t="n">
-        <v>30.36</v>
+        <v>0.3036</v>
       </c>
       <c r="O82" t="n">
-        <v>75.09999999999999</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -8080,13 +8080,13 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>5.01</v>
+        <v>0.0501</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W82" t="n">
-        <v>0.06</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="X82" t="n">
         <v>2024</v>
@@ -8122,40 +8122,40 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>20.08</v>
+        <v>0.2008</v>
       </c>
       <c r="E83" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="F83" t="n">
-        <v>0.66</v>
+        <v>0.0066</v>
       </c>
       <c r="G83" t="n">
-        <v>2.39</v>
+        <v>0.0239</v>
       </c>
       <c r="H83" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="I83" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="J83" t="n">
-        <v>3.71</v>
+        <v>0.0371</v>
       </c>
       <c r="K83" t="n">
-        <v>25.21</v>
+        <v>0.2521</v>
       </c>
       <c r="L83" t="n">
-        <v>4.91</v>
+        <v>0.0491</v>
       </c>
       <c r="M83" t="n">
-        <v>54.68</v>
+        <v>0.5468</v>
       </c>
       <c r="N83" t="n">
-        <v>32.12</v>
+        <v>0.3212</v>
       </c>
       <c r="O83" t="n">
-        <v>93.15000000000001</v>
+        <v>0.9315000000000001</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -8173,13 +8173,13 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>5.17</v>
+        <v>0.0517</v>
       </c>
       <c r="V83" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W83" t="n">
-        <v>0.93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="X83" t="n">
         <v>2024</v>
@@ -8215,40 +8215,40 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>21.83</v>
+        <v>0.2183</v>
       </c>
       <c r="E84" t="n">
-        <v>1.47</v>
+        <v>0.0147</v>
       </c>
       <c r="F84" t="n">
-        <v>1.4</v>
+        <v>0.014</v>
       </c>
       <c r="G84" t="n">
-        <v>4.34</v>
+        <v>0.0434</v>
       </c>
       <c r="H84" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="I84" t="n">
-        <v>0.63</v>
+        <v>0.0063</v>
       </c>
       <c r="J84" t="n">
-        <v>2.54</v>
+        <v>0.0254</v>
       </c>
       <c r="K84" t="n">
-        <v>16.38</v>
+        <v>0.1638</v>
       </c>
       <c r="L84" t="n">
-        <v>4.15</v>
+        <v>0.0415</v>
       </c>
       <c r="M84" t="n">
-        <v>68.98999999999999</v>
+        <v>0.6899</v>
       </c>
       <c r="N84" t="n">
-        <v>43.83</v>
+        <v>0.4383</v>
       </c>
       <c r="O84" t="n">
-        <v>95.28</v>
+        <v>0.9528</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -8266,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>5.94</v>
+        <v>0.0594</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W84" t="n">
-        <v>1.56</v>
+        <v>0.0156</v>
       </c>
       <c r="X84" t="n">
         <v>2024</v>
@@ -8308,40 +8308,40 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>24.96</v>
+        <v>0.2496</v>
       </c>
       <c r="E85" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="F85" t="n">
-        <v>2.04</v>
+        <v>0.0204</v>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>0.048</v>
       </c>
       <c r="H85" t="n">
-        <v>3.04</v>
+        <v>0.0304</v>
       </c>
       <c r="I85" t="n">
-        <v>0.84</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="J85" t="n">
-        <v>3.81</v>
+        <v>0.0381</v>
       </c>
       <c r="K85" t="n">
-        <v>23.55</v>
+        <v>0.2355</v>
       </c>
       <c r="L85" t="n">
-        <v>6.45</v>
+        <v>0.0645</v>
       </c>
       <c r="M85" t="n">
-        <v>67.84999999999999</v>
+        <v>0.6785</v>
       </c>
       <c r="N85" t="n">
-        <v>37.58</v>
+        <v>0.3758</v>
       </c>
       <c r="O85" t="n">
-        <v>89.59999999999999</v>
+        <v>0.8959999999999999</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -8359,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="V85" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W85" t="n">
-        <v>1.87</v>
+        <v>0.0187</v>
       </c>
       <c r="X85" t="n">
         <v>2024</v>
@@ -8401,40 +8401,40 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>29.36</v>
+        <v>0.2936</v>
       </c>
       <c r="E86" t="n">
-        <v>1.01</v>
+        <v>0.0101</v>
       </c>
       <c r="F86" t="n">
-        <v>0.91</v>
+        <v>0.0091</v>
       </c>
       <c r="G86" t="n">
-        <v>2.53</v>
+        <v>0.0253</v>
       </c>
       <c r="H86" t="n">
-        <v>1.78</v>
+        <v>0.0178</v>
       </c>
       <c r="I86" t="n">
-        <v>0.59</v>
+        <v>0.0059</v>
       </c>
       <c r="J86" t="n">
-        <v>4.86</v>
+        <v>0.0486</v>
       </c>
       <c r="K86" t="n">
-        <v>24.56</v>
+        <v>0.2456</v>
       </c>
       <c r="L86" t="n">
-        <v>5.83</v>
+        <v>0.0583</v>
       </c>
       <c r="M86" t="n">
-        <v>41.67</v>
+        <v>0.4167</v>
       </c>
       <c r="N86" t="n">
-        <v>31.47</v>
+        <v>0.3147</v>
       </c>
       <c r="O86" t="n">
-        <v>78.44</v>
+        <v>0.7844</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>5.04</v>
+        <v>0.0504</v>
       </c>
       <c r="V86" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W86" t="n">
-        <v>0.26</v>
+        <v>0.0026</v>
       </c>
       <c r="X86" t="n">
         <v>2024</v>
@@ -8494,40 +8494,40 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20.1</v>
+        <v>0.201</v>
       </c>
       <c r="E87" t="n">
-        <v>0.68</v>
+        <v>0.0068</v>
       </c>
       <c r="F87" t="n">
-        <v>0.67</v>
+        <v>0.0067</v>
       </c>
       <c r="G87" t="n">
-        <v>2.32</v>
+        <v>0.0232</v>
       </c>
       <c r="H87" t="n">
-        <v>0.97</v>
+        <v>0.0097</v>
       </c>
       <c r="I87" t="n">
-        <v>0.33</v>
+        <v>0.0033</v>
       </c>
       <c r="J87" t="n">
-        <v>3.59</v>
+        <v>0.0359</v>
       </c>
       <c r="K87" t="n">
-        <v>24.19</v>
+        <v>0.2419</v>
       </c>
       <c r="L87" t="n">
-        <v>4.93</v>
+        <v>0.0493</v>
       </c>
       <c r="M87" t="n">
-        <v>56.46</v>
+        <v>0.5646</v>
       </c>
       <c r="N87" t="n">
-        <v>35.04</v>
+        <v>0.3504</v>
       </c>
       <c r="O87" t="n">
-        <v>98.04000000000001</v>
+        <v>0.9804</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8545,13 +8545,13 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>5.21</v>
+        <v>0.0521</v>
       </c>
       <c r="V87" t="n">
-        <v>4.1</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="W87" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="X87" t="n">
         <v>2024</v>
@@ -8587,40 +8587,40 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>21.4</v>
+        <v>0.214</v>
       </c>
       <c r="E88" t="n">
-        <v>1.49</v>
+        <v>0.0149</v>
       </c>
       <c r="F88" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="G88" t="n">
-        <v>3.93</v>
+        <v>0.0393</v>
       </c>
       <c r="H88" t="n">
-        <v>1.97</v>
+        <v>0.0197</v>
       </c>
       <c r="I88" t="n">
-        <v>0.74</v>
+        <v>0.0074</v>
       </c>
       <c r="J88" t="n">
-        <v>2.51</v>
+        <v>0.0251</v>
       </c>
       <c r="K88" t="n">
-        <v>15.81</v>
+        <v>0.1581</v>
       </c>
       <c r="L88" t="n">
-        <v>4.24</v>
+        <v>0.0424</v>
       </c>
       <c r="M88" t="n">
-        <v>70.05</v>
+        <v>0.7005</v>
       </c>
       <c r="N88" t="n">
-        <v>44.61</v>
+        <v>0.4461</v>
       </c>
       <c r="O88" t="n">
-        <v>96.06999999999999</v>
+        <v>0.9606999999999999</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>6.51</v>
+        <v>0.06509999999999999</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W88" t="n">
-        <v>0.87</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="X88" t="n">
         <v>2024</v>
@@ -8680,40 +8680,40 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>24.41</v>
+        <v>0.2441</v>
       </c>
       <c r="E89" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="F89" t="n">
-        <v>1.91</v>
+        <v>0.0191</v>
       </c>
       <c r="G89" t="n">
-        <v>4.48</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>2.94</v>
+        <v>0.0294</v>
       </c>
       <c r="I89" t="n">
-        <v>0.75</v>
+        <v>0.0075</v>
       </c>
       <c r="J89" t="n">
-        <v>3.76</v>
+        <v>0.03759999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>22.91</v>
+        <v>0.2291</v>
       </c>
       <c r="L89" t="n">
-        <v>6.47</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="M89" t="n">
-        <v>67.64</v>
+        <v>0.6764</v>
       </c>
       <c r="N89" t="n">
-        <v>36.97</v>
+        <v>0.3697</v>
       </c>
       <c r="O89" t="n">
-        <v>89.39</v>
+        <v>0.8939</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -8731,13 +8731,13 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>5.39</v>
+        <v>0.0539</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="W89" t="n">
-        <v>2.42</v>
+        <v>0.0242</v>
       </c>
       <c r="X89" t="n">
         <v>2024</v>

--- a/data/summarized rasio - KBMI 4.xlsx
+++ b/data/summarized rasio - KBMI 4.xlsx
@@ -2965,7 +2965,7 @@
         <v>0.0308</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0308</v>
       </c>
       <c r="V27" t="n">
         <v>0.04099999999999999</v>
@@ -4339,10 +4339,10 @@
         <v>0.5672999999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>0.358</v>
+        <v>0.3794</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.6053999999999999</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4360,13 +4360,13 @@
         <v>0.0433</v>
       </c>
       <c r="U42" t="n">
+        <v>0.0433</v>
+      </c>
+      <c r="V42" t="n">
         <v>0.02</v>
       </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
         <v>0.0011</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>2022</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.0469</v>
       </c>
       <c r="U43" t="n">
         <v>0.0469</v>
@@ -4711,10 +4711,10 @@
         <v>0.5238</v>
       </c>
       <c r="N46" t="n">
-        <v>0.3434</v>
+        <v>0.3892</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.6347</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0.05309999999999999</v>
       </c>
       <c r="U46" t="n">
+        <v>0.05309999999999999</v>
+      </c>
+      <c r="V46" t="n">
         <v>0.02</v>
       </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
         <v>0.0073</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>2022</v>
@@ -5083,10 +5083,10 @@
         <v>0.4855</v>
       </c>
       <c r="N50" t="n">
-        <v>0.3449</v>
+        <v>0.3746</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.6334000000000001</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -5104,13 +5104,13 @@
         <v>0.0731</v>
       </c>
       <c r="U50" t="n">
+        <v>0.0731</v>
+      </c>
+      <c r="V50" t="n">
         <v>0.02</v>
       </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
         <v>0.001</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>2022</v>
@@ -5455,7 +5455,7 @@
         <v>0.4654</v>
       </c>
       <c r="N54" t="n">
-        <v>0.3392</v>
+        <v>0.361</v>
       </c>
       <c r="O54" t="n">
         <v>0.6523</v>
@@ -5824,10 +5824,10 @@
         <v>0.0559</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4765</v>
+        <v>0.4816</v>
       </c>
       <c r="N58" t="n">
-        <v>0.3442</v>
+        <v>0.3515</v>
       </c>
       <c r="O58" t="n">
         <v>0.6561</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>0.0732</v>
       </c>
       <c r="U58" t="n">
         <v>0.0732</v>
@@ -6010,7 +6010,7 @@
         <v>0.04679999999999999</v>
       </c>
       <c r="M60" t="n">
-        <v>0.6625</v>
+        <v>0.6663</v>
       </c>
       <c r="N60" t="n">
         <v>0.4167</v>
@@ -6196,10 +6196,10 @@
         <v>0.0556</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4349</v>
+        <v>0.4409</v>
       </c>
       <c r="N62" t="n">
-        <v>0.3254</v>
+        <v>0.3290999999999999</v>
       </c>
       <c r="O62" t="n">
         <v>0.6575</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>0.0755</v>
       </c>
       <c r="U62" t="n">
         <v>0.0755</v>
@@ -6409,7 +6409,7 @@
         <v>0.0808</v>
       </c>
       <c r="V64" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="W64" t="n">
         <v>0.018</v>
@@ -6568,10 +6568,10 @@
         <v>0.0552</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4379</v>
+        <v>0.4443</v>
       </c>
       <c r="N66" t="n">
-        <v>0.3308</v>
+        <v>0.3356</v>
       </c>
       <c r="O66" t="n">
         <v>0.6740999999999999</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>0.0725</v>
       </c>
       <c r="U66" t="n">
         <v>0.0725</v>
@@ -6781,7 +6781,7 @@
         <v>0.08210000000000001</v>
       </c>
       <c r="V68" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="W68" t="n">
         <v>0.0125</v>
@@ -6940,7 +6940,7 @@
         <v>0.0554</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.4376</v>
       </c>
       <c r="N70" t="n">
         <v>0.3413</v>
@@ -7153,7 +7153,7 @@
         <v>0.0953</v>
       </c>
       <c r="V72" t="n">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="W72" t="n">
         <v>0.0168</v>
